--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2341.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2341.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164998469818894</v>
+        <v>0.4809054136276245</v>
       </c>
       <c r="B1">
-        <v>1.854941717337279</v>
+        <v>0.3935800194740295</v>
       </c>
       <c r="C1">
-        <v>4.025181616002296</v>
+        <v>0.3510326743125916</v>
       </c>
       <c r="D1">
-        <v>2.086493971485414</v>
+        <v>0.3866152763366699</v>
       </c>
       <c r="E1">
-        <v>0.8360162995861961</v>
+        <v>0.482348769903183</v>
       </c>
     </row>
   </sheetData>
